--- a/tables/DE/exp1/DE_table2_F7_dim10.xlsx
+++ b/tables/DE/exp1/DE_table2_F7_dim10.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
+<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:workbookPr/>
+  <s:bookViews>
+    <s:workbookView activeTab="0"/>
+  </s:bookViews>
+  <s:sheets>
+    <s:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+  </s:sheets>
+  <s:definedNames/>
+  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
+</s:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -187,7 +186,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,14 +221,15 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -514,18 +518,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <s:sheetPr>
+    <s:outlinePr summaryBelow="1" summaryRight="1"/>
+    <s:pageSetUpPr/>
+  </s:sheetPr>
   <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">

--- a/tables/DE/exp1/DE_table2_F7_dim10.xlsx
+++ b/tables/DE/exp1/DE_table2_F7_dim10.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
-  <si>
-    <t>Gen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+  <si>
+    <t>MaxFES</t>
   </si>
   <si>
     <t>Run  0</t>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Run 49</t>
-  </si>
-  <si>
-    <t>Run 50</t>
   </si>
   <si>
     <t>Mean</t>
@@ -526,7 +523,7 @@
     <s:outlinePr summaryBelow="1" summaryRight="1"/>
     <s:pageSetUpPr/>
   </s:sheetPr>
-  <dimension ref="A1:BA14"/>
+  <dimension ref="A1:AZ14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,7 +531,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,11 +688,8 @@
       <c r="AZ1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
-        <v>52</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -850,15 +844,12 @@
         <v>123.79621954</v>
       </c>
       <c r="AZ2" t="n">
-        <v>291.9163429</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>244.78002168</v>
+        <v>243.83729526</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>0.001</v>
       </c>
       <c r="B3" t="n">
         <v>186.89435219</v>
@@ -1011,15 +1002,12 @@
         <v>85.91183555000001</v>
       </c>
       <c r="AZ3" t="n">
-        <v>115.8981549</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>142.23100668</v>
+        <v>142.75766372</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="B4" t="n">
         <v>4.97600696</v>
@@ -1172,15 +1160,12 @@
         <v>5.65625473</v>
       </c>
       <c r="AZ4" t="n">
-        <v>5.6937029</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>5.50346861</v>
+        <v>5.49966392</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1" t="n">
-        <v>333</v>
+        <v>0.1</v>
       </c>
       <c r="B5" t="n">
         <v>0.10725481</v>
@@ -1333,15 +1318,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ5" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1" t="n">
-        <v>666</v>
+        <v>0.2</v>
       </c>
       <c r="B6" t="n">
         <v>0.10725481</v>
@@ -1494,15 +1476,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1" t="n">
-        <v>1000</v>
+        <v>0.3</v>
       </c>
       <c r="B7" t="n">
         <v>0.10725481</v>
@@ -1655,15 +1634,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1" t="n">
-        <v>1333</v>
+        <v>0.4</v>
       </c>
       <c r="B8" t="n">
         <v>0.10725481</v>
@@ -1816,15 +1792,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1" t="n">
-        <v>1666</v>
+        <v>0.5</v>
       </c>
       <c r="B9" t="n">
         <v>0.10725481</v>
@@ -1977,15 +1950,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ9" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1" t="n">
-        <v>1999</v>
+        <v>0.6</v>
       </c>
       <c r="B10" t="n">
         <v>0.10725481</v>
@@ -2138,15 +2108,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1" t="n">
-        <v>2332</v>
+        <v>0.7</v>
       </c>
       <c r="B11" t="n">
         <v>0.10725481</v>
@@ -2299,15 +2266,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ11" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1" t="n">
-        <v>2666</v>
+        <v>0.8</v>
       </c>
       <c r="B12" t="n">
         <v>0.10725481</v>
@@ -2460,15 +2424,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ12" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1" t="n">
-        <v>2999</v>
+        <v>0.9</v>
       </c>
       <c r="B13" t="n">
         <v>0.10725481</v>
@@ -2621,15 +2582,12 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ13" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1" t="n">
-        <v>3332</v>
+        <v>1</v>
       </c>
       <c r="B14" t="n">
         <v>0.10725481</v>
@@ -2782,10 +2740,7 @@
         <v>0.10334554</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2.06606642</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0.82238414</v>
+        <v>0.79751049</v>
       </c>
     </row>
   </sheetData>
